--- a/过程性文件/data/第三问数据/灵敏度分析/灵敏度分析数据(消去1个元素）.xlsx
+++ b/过程性文件/data/第三问数据/灵敏度分析/灵敏度分析数据(消去1个元素）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,64 +503,64 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -571,64 +571,64 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4">
@@ -639,64 +639,64 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -707,64 +707,64 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6">
@@ -775,64 +775,64 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7">
@@ -843,64 +843,64 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8">
@@ -911,64 +911,64 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
